--- a/Python/output/case-study/FC_SA_static2SSPresults.xlsx
+++ b/Python/output/case-study/FC_SA_static2SSPresults.xlsx
@@ -362,11 +362,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -404,16 +402,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>5944541.284</v>
+        <v>6405078.1770000001</v>
       </c>
       <c r="E2">
-        <v>869401.97129999998</v>
+        <v>869343.06810000003</v>
       </c>
       <c r="F2">
-        <v>7.2128056999999995E-2</v>
+        <v>5.9238195E-2</v>
       </c>
       <c r="G2">
-        <v>0.22260880499999999</v>
+        <v>0.216094971</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -427,16 +425,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>3303552.9959999998</v>
+        <v>4174775.1209999998</v>
       </c>
       <c r="E3">
-        <v>137555.7291</v>
+        <v>137774.55439999999</v>
       </c>
       <c r="F3">
-        <v>6.5372944000000002E-2</v>
+        <v>6.2013865000000001E-2</v>
       </c>
       <c r="G3">
-        <v>0.255718946</v>
+        <v>0.22422695200000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -444,22 +442,22 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3049808.878</v>
+        <v>3962254.2489999998</v>
       </c>
       <c r="E4">
-        <v>12527.631799999999</v>
+        <v>137774.55439999999</v>
       </c>
       <c r="F4">
-        <v>6.4749240999999999E-2</v>
+        <v>6.1858653999999999E-2</v>
       </c>
       <c r="G4">
-        <v>0.22237992300000001</v>
+        <v>0.221449852</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -467,45 +465,45 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2981916.2519999999</v>
+        <v>3858653.6680000001</v>
       </c>
       <c r="E5">
-        <v>12527.631799999999</v>
+        <v>137774.55439999999</v>
       </c>
       <c r="F5">
-        <v>6.3412905000000006E-2</v>
+        <v>6.1947107000000001E-2</v>
       </c>
       <c r="G5">
-        <v>0.21861815500000001</v>
+        <v>0.22436809499999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>4320916.8020000001</v>
+        <v>3806853.378</v>
       </c>
       <c r="E6">
-        <v>499506.9901</v>
+        <v>137774.55439999999</v>
       </c>
       <c r="F6">
-        <v>4.7749350069999998</v>
+        <v>6.2497853999999999E-2</v>
       </c>
       <c r="G6">
-        <v>0.58667802800000002</v>
+        <v>0.223649025</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -513,22 +511,22 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2820879.5950000002</v>
+        <v>4897535.2019999996</v>
       </c>
       <c r="E7">
-        <v>111403.9117</v>
+        <v>499474.55859999999</v>
       </c>
       <c r="F7">
-        <v>4.6604552269999999</v>
+        <v>4.8248581890000004</v>
       </c>
       <c r="G7">
-        <v>0.58683490800000004</v>
+        <v>0.58744502099999996</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -536,22 +534,22 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2548838.162</v>
+        <v>3629096.8139999998</v>
       </c>
       <c r="E8">
-        <v>111403.9117</v>
+        <v>111392.1738</v>
       </c>
       <c r="F8">
-        <v>4.6887748240000002</v>
+        <v>4.6724259850000003</v>
       </c>
       <c r="G8">
-        <v>0.59359598199999997</v>
+        <v>0.59144020100000005</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -559,114 +557,68 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>2505853.8760000002</v>
+        <v>3443023.9550000001</v>
       </c>
       <c r="E9">
-        <v>111403.9117</v>
+        <v>111392.1738</v>
       </c>
       <c r="F9">
-        <v>4.6841819290000002</v>
+        <v>4.685266972</v>
       </c>
       <c r="G9">
-        <v>0.58615207709999995</v>
+        <v>0.59074521099999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>7406049.3712892402</v>
+        <v>3357055.3820000002</v>
       </c>
       <c r="E10">
-        <v>1031575.22045129</v>
+        <v>111392.1738</v>
       </c>
       <c r="F10">
-        <v>7.1415185928344699E-2</v>
+        <v>4.6940050129999999</v>
       </c>
       <c r="G10">
-        <v>0.20492601394653301</v>
+        <v>0.58412694899999995</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>9333435.6008591205</v>
+        <v>3314071.0950000002</v>
       </c>
       <c r="E11">
-        <v>1209191.3890908</v>
+        <v>111392.1738</v>
       </c>
       <c r="F11">
-        <v>7.0161104202270494E-2</v>
+        <v>4.6109499930000002</v>
       </c>
       <c r="G11">
-        <v>0.200650930404663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0.25</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>5016840.7836643197</v>
-      </c>
-      <c r="E12">
-        <v>652837.80291496404</v>
-      </c>
-      <c r="F12">
-        <v>5.2410299777984601</v>
-      </c>
-      <c r="G12">
-        <v>0.599318027496337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>0.25</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>5719923.2012589304</v>
-      </c>
-      <c r="E13">
-        <v>812385.11771948799</v>
-      </c>
-      <c r="F13">
-        <v>4.8948700428008998</v>
-      </c>
-      <c r="G13">
-        <v>0.60863995552062899</v>
+        <v>0.58626198799999996</v>
       </c>
     </row>
   </sheetData>
